--- a/nr-add-ruim-note/ig/ValueSet-FrMedicinalProductOnly.xlsx
+++ b/nr-add-ruim-note/ig/ValueSet-FrMedicinalProductOnly.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interopsante.org/fhir/ValueSet/fr-medicinal-product-only</t>
+    <t>https://hl7.fr/fhir/fr/medication/ValueSet/FrMedicinalProductOnly</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T07:45:00Z</t>
+    <t>2024-12-26T09:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Copyright</t>
-  </si>
-  <si>
-    <t>InterOp'Santé 2021. This value set includes content from SNOMED CT, which is copyright © 2002 International Health Terminology Standards Development Organisation (IHTSDO), and distributed by agreement between IHTSDO and HL7. Implementer use of SNOMED CT is not covered by this agreement.</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -367,16 +364,14 @@
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>26</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -401,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -409,13 +404,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -428,10 +423,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
